--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mmp13-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mmp13-Lrp1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3194630000000001</v>
+        <v>0.5053303333333333</v>
       </c>
       <c r="H2">
-        <v>0.9583890000000002</v>
+        <v>1.515991</v>
       </c>
       <c r="I2">
-        <v>0.004642769429023784</v>
+        <v>0.006927186824079787</v>
       </c>
       <c r="J2">
-        <v>0.004642769429023784</v>
+        <v>0.006927186824079787</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N2">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q2">
-        <v>7.550762829986335</v>
+        <v>0.9696815770587777</v>
       </c>
       <c r="R2">
-        <v>67.95686546987702</v>
+        <v>8.727134193529</v>
       </c>
       <c r="S2">
-        <v>0.000317001081175331</v>
+        <v>4.519309958257517E-05</v>
       </c>
       <c r="T2">
-        <v>0.000317001081175331</v>
+        <v>4.519309958257517E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3194630000000001</v>
+        <v>0.5053303333333333</v>
       </c>
       <c r="H3">
-        <v>0.9583890000000002</v>
+        <v>1.515991</v>
       </c>
       <c r="I3">
-        <v>0.004642769429023784</v>
+        <v>0.006927186824079787</v>
       </c>
       <c r="J3">
-        <v>0.004642769429023784</v>
+        <v>0.006927186824079787</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P3">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q3">
-        <v>57.91493336052068</v>
+        <v>91.61052322193711</v>
       </c>
       <c r="R3">
-        <v>521.2344002446861</v>
+        <v>824.494708997434</v>
       </c>
       <c r="S3">
-        <v>0.00243142274560298</v>
+        <v>0.004269611382469177</v>
       </c>
       <c r="T3">
-        <v>0.00243142274560298</v>
+        <v>0.004269611382469177</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3194630000000001</v>
+        <v>0.5053303333333333</v>
       </c>
       <c r="H4">
-        <v>0.9583890000000002</v>
+        <v>1.515991</v>
       </c>
       <c r="I4">
-        <v>0.004642769429023784</v>
+        <v>0.006927186824079787</v>
       </c>
       <c r="J4">
-        <v>0.004642769429023784</v>
+        <v>0.006927186824079787</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N4">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q4">
-        <v>9.629585774544667</v>
+        <v>14.67866994276078</v>
       </c>
       <c r="R4">
-        <v>86.666271970902</v>
+        <v>132.108029484847</v>
       </c>
       <c r="S4">
-        <v>0.0004042755904977578</v>
+        <v>0.0006841159078994547</v>
       </c>
       <c r="T4">
-        <v>0.0004042755904977578</v>
+        <v>0.0006841159078994548</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3194630000000001</v>
+        <v>0.5053303333333333</v>
       </c>
       <c r="H5">
-        <v>0.9583890000000002</v>
+        <v>1.515991</v>
       </c>
       <c r="I5">
-        <v>0.004642769429023784</v>
+        <v>0.006927186824079787</v>
       </c>
       <c r="J5">
-        <v>0.004642769429023784</v>
+        <v>0.006927186824079787</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N5">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q5">
-        <v>35.49251383328567</v>
+        <v>41.37367107159511</v>
       </c>
       <c r="R5">
-        <v>319.432624499571</v>
+        <v>372.363039644356</v>
       </c>
       <c r="S5">
-        <v>0.001490070011747715</v>
+        <v>0.00192826643412858</v>
       </c>
       <c r="T5">
-        <v>0.001490070011747715</v>
+        <v>0.00192826643412858</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>62.875842</v>
+        <v>62.87584200000001</v>
       </c>
       <c r="H6">
         <v>188.627526</v>
       </c>
       <c r="I6">
-        <v>0.9137772983466931</v>
+        <v>0.8619168008028857</v>
       </c>
       <c r="J6">
-        <v>0.913777298346693</v>
+        <v>0.8619168008028857</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N6">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q6">
-        <v>1486.120679633302</v>
+        <v>120.652851427466</v>
       </c>
       <c r="R6">
-        <v>13375.08611669972</v>
+        <v>1085.875662847194</v>
       </c>
       <c r="S6">
-        <v>0.06239129380807568</v>
+        <v>0.005623161724926327</v>
       </c>
       <c r="T6">
-        <v>0.06239129380807567</v>
+        <v>0.005623161724926327</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>62.875842</v>
+        <v>62.87584200000001</v>
       </c>
       <c r="H7">
         <v>188.627526</v>
       </c>
       <c r="I7">
-        <v>0.9137772983466931</v>
+        <v>0.8619168008028857</v>
       </c>
       <c r="J7">
-        <v>0.913777298346693</v>
+        <v>0.8619168008028857</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P7">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q7">
         <v>11398.66024990884</v>
@@ -883,10 +883,10 @@
         <v>102587.9422491795</v>
       </c>
       <c r="S7">
-        <v>0.4785460362788153</v>
+        <v>0.5312473702394016</v>
       </c>
       <c r="T7">
-        <v>0.4785460362788151</v>
+        <v>0.5312473702394016</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>62.875842</v>
+        <v>62.87584200000001</v>
       </c>
       <c r="H8">
         <v>188.627526</v>
       </c>
       <c r="I8">
-        <v>0.9137772983466931</v>
+        <v>0.8619168008028857</v>
       </c>
       <c r="J8">
-        <v>0.913777298346693</v>
+        <v>0.8619168008028857</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N8">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q8">
-        <v>1895.268978522452</v>
+        <v>1826.396856098438</v>
       </c>
       <c r="R8">
-        <v>17057.42080670207</v>
+        <v>16437.57170488594</v>
       </c>
       <c r="S8">
-        <v>0.07956842624214297</v>
+        <v>0.08512127789961682</v>
       </c>
       <c r="T8">
-        <v>0.07956842624214296</v>
+        <v>0.08512127789961683</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>62.875842</v>
+        <v>62.87584200000001</v>
       </c>
       <c r="H9">
         <v>188.627526</v>
       </c>
       <c r="I9">
-        <v>0.9137772983466931</v>
+        <v>0.8619168008028857</v>
       </c>
       <c r="J9">
-        <v>0.913777298346693</v>
+        <v>0.8619168008028857</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N9">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q9">
-        <v>6985.540397368345</v>
+        <v>5147.928461166824</v>
       </c>
       <c r="R9">
-        <v>62869.8635763151</v>
+        <v>46331.35615050142</v>
       </c>
       <c r="S9">
-        <v>0.2932715420176592</v>
+        <v>0.239924990938941</v>
       </c>
       <c r="T9">
-        <v>0.2932715420176592</v>
+        <v>0.239924990938941</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.623545666666667</v>
+        <v>4.893887666666667</v>
       </c>
       <c r="H10">
-        <v>7.870637</v>
+        <v>14.681663</v>
       </c>
       <c r="I10">
-        <v>0.03812810127259752</v>
+        <v>0.0670865608629469</v>
       </c>
       <c r="J10">
-        <v>0.03812810127259752</v>
+        <v>0.06708656086294688</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N10">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q10">
-        <v>62.00959454659344</v>
+        <v>9.390912038188555</v>
       </c>
       <c r="R10">
-        <v>558.086350919341</v>
+        <v>84.518208343697</v>
       </c>
       <c r="S10">
-        <v>0.00260332749910377</v>
+        <v>0.0004376740086166801</v>
       </c>
       <c r="T10">
-        <v>0.00260332749910377</v>
+        <v>0.00043767400861668</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.623545666666667</v>
+        <v>4.893887666666667</v>
       </c>
       <c r="H11">
-        <v>7.870637</v>
+        <v>14.681663</v>
       </c>
       <c r="I11">
-        <v>0.03812810127259752</v>
+        <v>0.0670865608629469</v>
       </c>
       <c r="J11">
-        <v>0.03812810127259752</v>
+        <v>0.06708656086294688</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P11">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q11">
-        <v>475.6183734995376</v>
+        <v>887.2050224560404</v>
       </c>
       <c r="R11">
-        <v>4280.565361495838</v>
+        <v>7984.845202104362</v>
       </c>
       <c r="S11">
-        <v>0.0199677227349066</v>
+        <v>0.04134918707193946</v>
       </c>
       <c r="T11">
-        <v>0.01996772273490659</v>
+        <v>0.04134918707193945</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.623545666666667</v>
+        <v>4.893887666666667</v>
       </c>
       <c r="H12">
-        <v>7.870637</v>
+        <v>14.681663</v>
       </c>
       <c r="I12">
-        <v>0.03812810127259752</v>
+        <v>0.0670865608629469</v>
       </c>
       <c r="J12">
-        <v>0.03812810127259752</v>
+        <v>0.06708656086294688</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N12">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q12">
-        <v>79.08164022312955</v>
+        <v>142.1560453774746</v>
       </c>
       <c r="R12">
-        <v>711.7347620081659</v>
+        <v>1279.404408397271</v>
       </c>
       <c r="S12">
-        <v>0.003320057326167664</v>
+        <v>0.006625342243271124</v>
       </c>
       <c r="T12">
-        <v>0.003320057326167664</v>
+        <v>0.006625342243271123</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.623545666666667</v>
+        <v>4.893887666666667</v>
       </c>
       <c r="H13">
-        <v>7.870637</v>
+        <v>14.681663</v>
       </c>
       <c r="I13">
-        <v>0.03812810127259752</v>
+        <v>0.0670865608629469</v>
       </c>
       <c r="J13">
-        <v>0.03812810127259752</v>
+        <v>0.06708656086294688</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N13">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q13">
-        <v>291.4773568971159</v>
+        <v>400.6846318652342</v>
       </c>
       <c r="R13">
-        <v>2623.296212074043</v>
+        <v>3606.161686787108</v>
       </c>
       <c r="S13">
-        <v>0.01223699371241949</v>
+        <v>0.01867435753911964</v>
       </c>
       <c r="T13">
-        <v>0.01223699371241949</v>
+        <v>0.01867435753911963</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.989864666666667</v>
+        <v>4.673793</v>
       </c>
       <c r="H14">
-        <v>8.969594000000001</v>
+        <v>14.021379</v>
       </c>
       <c r="I14">
-        <v>0.04345183095168575</v>
+        <v>0.06406945151008747</v>
       </c>
       <c r="J14">
-        <v>0.04345183095168575</v>
+        <v>0.06406945151008747</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N14">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q14">
-        <v>70.66783631204912</v>
+        <v>8.968570988388999</v>
       </c>
       <c r="R14">
-        <v>636.010526808442</v>
+        <v>80.71713889550099</v>
       </c>
       <c r="S14">
-        <v>0.002966823487856978</v>
+        <v>0.0004179903293832405</v>
       </c>
       <c r="T14">
-        <v>0.002966823487856978</v>
+        <v>0.0004179903293832405</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.989864666666667</v>
+        <v>4.673793</v>
       </c>
       <c r="H15">
-        <v>8.969594000000001</v>
+        <v>14.021379</v>
       </c>
       <c r="I15">
-        <v>0.04345183095168575</v>
+        <v>0.06406945151008747</v>
       </c>
       <c r="J15">
-        <v>0.04345183095168575</v>
+        <v>0.06406945151008747</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>543.865174</v>
       </c>
       <c r="O15">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P15">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q15">
-        <v>542.027755724373</v>
+        <v>847.3044143949941</v>
       </c>
       <c r="R15">
-        <v>4878.249801519357</v>
+        <v>7625.739729554946</v>
       </c>
       <c r="S15">
-        <v>0.02275576500817937</v>
+        <v>0.03948957439477825</v>
       </c>
       <c r="T15">
-        <v>0.02275576500817936</v>
+        <v>0.03948957439477825</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.989864666666667</v>
+        <v>4.673793</v>
       </c>
       <c r="H16">
-        <v>8.969594000000001</v>
+        <v>14.021379</v>
       </c>
       <c r="I16">
-        <v>0.04345183095168575</v>
+        <v>0.06406945151008747</v>
       </c>
       <c r="J16">
-        <v>0.04345183095168575</v>
+        <v>0.06406945151008747</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N16">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q16">
-        <v>90.12360824867689</v>
+        <v>135.762807617827</v>
       </c>
       <c r="R16">
-        <v>811.112474238092</v>
+        <v>1221.865268560443</v>
       </c>
       <c r="S16">
-        <v>0.003783628475363496</v>
+        <v>0.006327378213054925</v>
       </c>
       <c r="T16">
-        <v>0.003783628475363495</v>
+        <v>0.006327378213054926</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.989864666666667</v>
+        <v>4.673793</v>
       </c>
       <c r="H17">
-        <v>8.969594000000001</v>
+        <v>14.021379</v>
       </c>
       <c r="I17">
-        <v>0.04345183095168575</v>
+        <v>0.06406945151008747</v>
       </c>
       <c r="J17">
-        <v>0.04345183095168575</v>
+        <v>0.06406945151008747</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N17">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q17">
-        <v>332.1755979293962</v>
+        <v>382.664489905396</v>
       </c>
       <c r="R17">
-        <v>2989.580381364566</v>
+        <v>3443.980409148564</v>
       </c>
       <c r="S17">
-        <v>0.01394561398028591</v>
+        <v>0.01783450857287105</v>
       </c>
       <c r="T17">
-        <v>0.01394561398028591</v>
+        <v>0.01783450857287105</v>
       </c>
     </row>
   </sheetData>
